--- a/Algoritma/2023/Nutrihub dan Networking/output.xlsx
+++ b/Algoritma/2023/Nutrihub dan Networking/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t xml:space="preserve">Submission Date</t>
   </si>
@@ -98,10 +98,112 @@
     <t xml:space="preserve">Sales Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov 28, 2023</t>
+    <t xml:space="preserve">10/01/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jawa Tengah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kota Semarang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEBRIANO SAKA PERKASA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEMARANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eksternal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penggunaan Ruang Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisasi Akademis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organisasi Akademis (Forum OSIS, IGTK, Himpaudi, dll)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPRENEUR AIESEC SEMARANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTREPRENEUR WORKSHOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sociopreneur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutrisari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local Hero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value Added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;3x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATRIALIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUNSHINE AIESEC SEMARANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORKSHOP EDUCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELOK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUSINESS ACADEMY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/01/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KESYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event Collab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMA KSATRIAN 01 SEMARANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEMINJAMAN NUTRIHUB UNTUK EVENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/01/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">CPF</t>
@@ -116,54 +218,24 @@
     <t xml:space="preserve">SWARMAN RINDU M SIAHAAN</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">PALEMBANG</t>
   </si>
   <si>
-    <t xml:space="preserve">Eksternal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Collab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organisasi Akademis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organisasi Akademis (Forum OSIS, IGTK, Himpaudi, dll)</t>
-  </si>
-  <si>
     <t xml:space="preserve">BEM KM UNSRI</t>
   </si>
   <si>
     <t xml:space="preserve">Talkshow Entrepreneurship</t>
   </si>
   <si>
-    <t xml:space="preserve">Sociopreneur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tropicana Slim</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov 14, 2023</t>
+    <t xml:space="preserve">14/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">November</t>
   </si>
   <si>
-    <t xml:space="preserve">New</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local Hero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value Added</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1x</t>
-  </si>
-  <si>
     <t xml:space="preserve">RUDY</t>
   </si>
   <si>
@@ -182,9 +254,6 @@
     <t xml:space="preserve">PEMILIHAN ANGGOTA BARU</t>
   </si>
   <si>
-    <t xml:space="preserve">Education</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hilo</t>
   </si>
   <si>
@@ -194,12 +263,6 @@
     <t xml:space="preserve">TOMMY</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yogyakarta</t>
   </si>
   <si>
@@ -209,9 +272,6 @@
     <t xml:space="preserve">YOHANES NIKO SHENDIASTO</t>
   </si>
   <si>
-    <t xml:space="preserve">SEMARANG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Internal</t>
   </si>
   <si>
@@ -227,7 +287,7 @@
     <t xml:space="preserve">MEETING</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov 9, 2023</t>
+    <t xml:space="preserve">09/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">CPA</t>
@@ -263,10 +323,7 @@
     <t xml:space="preserve">L-Men</t>
   </si>
   <si>
-    <t xml:space="preserve">Nov 8, 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Existing</t>
+    <t xml:space="preserve">08/11/2023</t>
   </si>
   <si>
     <t xml:space="preserve">National/Chain</t>
@@ -300,9 +357,6 @@
   </si>
   <si>
     <t xml:space="preserve">KONTEN MANIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutrisari</t>
   </si>
   <si>
     <t xml:space="preserve">EDA</t>
@@ -722,407 +776,713 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>35</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
       </c>
       <c r="J2"/>
       <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>39</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>41</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>42</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>44</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" t="n">
+        <v>40</v>
+      </c>
+      <c r="V2" t="s">
         <v>45</v>
       </c>
-      <c r="S2" t="s">
+      <c r="W2" t="s">
         <v>46</v>
       </c>
-      <c r="T2"/>
-      <c r="U2" t="n">
-        <v>45</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>47</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>48</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="n">
+        <v>81325512690</v>
+      </c>
+      <c r="AA2" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>12345567</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>53</v>
       </c>
       <c r="J3"/>
       <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="T3"/>
       <c r="U3" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="V3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" t="s">
         <v>47</v>
       </c>
-      <c r="W3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" t="s">
-        <v>58</v>
-      </c>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="Z3" t="n">
-        <v>89909988</v>
+        <v>83842462038</v>
       </c>
       <c r="AA3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AB3"/>
-      <c r="AC3" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="J4"/>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4"/>
-      <c r="P4"/>
+        <v>55</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
       <c r="Q4" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="R4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4"/>
-      <c r="T4"/>
+        <v>43</v>
+      </c>
+      <c r="S4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" t="s">
+        <v>44</v>
+      </c>
       <c r="U4" t="n">
         <v>40</v>
       </c>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
+      <c r="V4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>81325512690</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>49</v>
+      </c>
       <c r="AB4"/>
-      <c r="AC4" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
         <v>60</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="Q5" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="R5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="s">
         <v>45</v>
       </c>
-      <c r="S5" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>46</v>
       </c>
-      <c r="U5" t="n">
-        <v>30</v>
-      </c>
-      <c r="V5" t="s">
-        <v>85</v>
-      </c>
-      <c r="W5" t="s">
-        <v>86</v>
-      </c>
       <c r="X5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="Z5" t="n">
-        <v>830174</v>
+        <v>83865622059</v>
       </c>
       <c r="AA5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="AB5"/>
-      <c r="AC5" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J6"/>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="T6"/>
       <c r="U6" t="n">
+        <v>45</v>
+      </c>
+      <c r="V6" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12345567</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" t="s">
+        <v>73</v>
+      </c>
+      <c r="S7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7" t="n">
+        <v>30</v>
+      </c>
+      <c r="V7" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>89909988</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" t="s">
+        <v>91</v>
+      </c>
+      <c r="R8" t="s">
+        <v>73</v>
+      </c>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8" t="n">
+        <v>40</v>
+      </c>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>103</v>
+      </c>
+      <c r="R9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S9" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" t="n">
+        <v>30</v>
+      </c>
+      <c r="V9" t="s">
+        <v>104</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>830174</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T10"/>
+      <c r="U10" t="n">
         <v>10</v>
       </c>
-      <c r="V6" t="s">
-        <v>47</v>
-      </c>
-      <c r="W6" t="s">
-        <v>48</v>
-      </c>
-      <c r="X6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="V10" t="s">
+        <v>45</v>
+      </c>
+      <c r="W10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X10" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z10" t="n">
         <v>82126318673</v>
       </c>
-      <c r="AA6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AA10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB10" t="n">
         <v>100000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
